--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Gp1ba</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>Gp1ba</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N2">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O2">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P2">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q2">
-        <v>6.22457367384475</v>
+        <v>2.3112702171075</v>
       </c>
       <c r="R2">
-        <v>24.898294695379</v>
+        <v>9.24508086843</v>
       </c>
       <c r="S2">
-        <v>0.1388694776965251</v>
+        <v>0.1401197083890722</v>
       </c>
       <c r="T2">
-        <v>0.09150098406219033</v>
+        <v>0.09399323945472793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>3.437017</v>
       </c>
       <c r="O3">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P3">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q3">
-        <v>2.193030513890167</v>
+        <v>0.7189036608050001</v>
       </c>
       <c r="R3">
-        <v>13.158183083341</v>
+        <v>4.31342196483</v>
       </c>
       <c r="S3">
-        <v>0.04892624266239269</v>
+        <v>0.04358320830088726</v>
       </c>
       <c r="T3">
-        <v>0.04835619127038532</v>
+        <v>0.04385386232737192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N4">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O4">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P4">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q4">
-        <v>2.081922834622</v>
+        <v>0.3145291496050001</v>
       </c>
       <c r="R4">
-        <v>12.491537007732</v>
+        <v>1.88717489763</v>
       </c>
       <c r="S4">
-        <v>0.04644744392106251</v>
+        <v>0.01906818700656741</v>
       </c>
       <c r="T4">
-        <v>0.0459062736079222</v>
+        <v>0.01918660145544095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N5">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O5">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P5">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q5">
-        <v>4.3068641135915</v>
+        <v>1.1862614138925</v>
       </c>
       <c r="R5">
-        <v>17.227456454366</v>
+        <v>4.74504565557</v>
       </c>
       <c r="S5">
-        <v>0.09608561185121835</v>
+        <v>0.07191656006187121</v>
       </c>
       <c r="T5">
-        <v>0.06331073022264372</v>
+        <v>0.048242110466617</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H6">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I6">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J6">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N6">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O6">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P6">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q6">
-        <v>4.930288496092667</v>
+        <v>1.90034727267</v>
       </c>
       <c r="R6">
-        <v>29.581730976556</v>
+        <v>11.40208363602</v>
       </c>
       <c r="S6">
-        <v>0.1099941336099046</v>
+        <v>0.1152076913004692</v>
       </c>
       <c r="T6">
-        <v>0.1087125655686055</v>
+        <v>0.1159231371510179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H7">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I7">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J7">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N7">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O7">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P7">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q7">
-        <v>4.041528513831833</v>
+        <v>0.5315949391500001</v>
       </c>
       <c r="R7">
-        <v>24.249171082991</v>
+        <v>3.1895696349</v>
       </c>
       <c r="S7">
-        <v>0.09016600705840372</v>
+        <v>0.03222770202439732</v>
       </c>
       <c r="T7">
-        <v>0.08911546127686761</v>
+        <v>0.03242783775688017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N8">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O8">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P8">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q8">
-        <v>1.706375077379</v>
+        <v>1.932811897061</v>
       </c>
       <c r="R8">
-        <v>10.238250464274</v>
+        <v>11.596871382366</v>
       </c>
       <c r="S8">
-        <v>0.03806901936845795</v>
+        <v>0.1171758444263813</v>
       </c>
       <c r="T8">
-        <v>0.03762546808999395</v>
+        <v>0.1179035126118391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>3.437017</v>
       </c>
       <c r="O9">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P9">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q9">
         <v>0.6011869742273335</v>
@@ -1013,10 +1013,10 @@
         <v>5.410682768046</v>
       </c>
       <c r="S9">
-        <v>0.01341240789866605</v>
+        <v>0.03644668758007218</v>
       </c>
       <c r="T9">
-        <v>0.01988420507435113</v>
+        <v>0.05500953515368036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J10">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N10">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O10">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P10">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q10">
-        <v>0.570728442488</v>
+        <v>0.2630266586006667</v>
       </c>
       <c r="R10">
-        <v>5.136555982392</v>
+        <v>2.367239927406</v>
       </c>
       <c r="S10">
-        <v>0.01273288177917975</v>
+        <v>0.01594587185387649</v>
       </c>
       <c r="T10">
-        <v>0.01887679187790433</v>
+        <v>0.02406734484100307</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J11">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N11">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O11">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P11">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q11">
-        <v>1.180663282366</v>
+        <v>0.9920173577390001</v>
       </c>
       <c r="R11">
-        <v>7.083979694196</v>
+        <v>5.952104146434</v>
       </c>
       <c r="S11">
-        <v>0.02634045349106758</v>
+        <v>0.06014060227767021</v>
       </c>
       <c r="T11">
-        <v>0.02603355454764575</v>
+        <v>0.06051407859564317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J12">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N12">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O12">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P12">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q12">
-        <v>1.351565883037333</v>
+        <v>1.589175419636</v>
       </c>
       <c r="R12">
-        <v>12.164092947336</v>
+        <v>14.302578776724</v>
       </c>
       <c r="S12">
-        <v>0.03015326961885011</v>
+        <v>0.09634303887545875</v>
       </c>
       <c r="T12">
-        <v>0.04470291995988646</v>
+        <v>0.1454120013564603</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J13">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N13">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O13">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P13">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q13">
-        <v>1.107925440660667</v>
+        <v>0.4445490688200001</v>
       </c>
       <c r="R13">
-        <v>9.971328965945998</v>
+        <v>4.000941619380001</v>
       </c>
       <c r="S13">
-        <v>0.02471768113497254</v>
+        <v>0.02695058562457773</v>
       </c>
       <c r="T13">
-        <v>0.03664453425242878</v>
+        <v>0.0406769252780624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H14">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I14">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J14">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N14">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O14">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P14">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q14">
-        <v>0.4014220384918334</v>
+        <v>1.04296577306725</v>
       </c>
       <c r="R14">
-        <v>2.408532230951</v>
+        <v>4.171863092269</v>
       </c>
       <c r="S14">
-        <v>0.008955676604081857</v>
+        <v>0.06322932684385868</v>
       </c>
       <c r="T14">
-        <v>0.008851331867255197</v>
+        <v>0.04241465620306389</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H15">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I15">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J15">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>3.437017</v>
       </c>
       <c r="O15">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P15">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q15">
-        <v>0.1414282849698889</v>
+        <v>0.3244068593981667</v>
       </c>
       <c r="R15">
-        <v>1.272854564729</v>
+        <v>1.946441156389</v>
       </c>
       <c r="S15">
-        <v>0.003155247747779109</v>
+        <v>0.01966701868168955</v>
       </c>
       <c r="T15">
-        <v>0.00467772779885886</v>
+        <v>0.01978915190690785</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2831585</v>
+      </c>
+      <c r="H16">
+        <v>0.566317</v>
+      </c>
+      <c r="I16">
+        <v>0.1904839586914821</v>
+      </c>
+      <c r="J16">
+        <v>0.1595748667689891</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.1234456666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.370337</v>
-      </c>
-      <c r="I16">
-        <v>0.03421116907552791</v>
-      </c>
-      <c r="J16">
-        <v>0.04323100760208379</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N16">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O16">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P16">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q16">
-        <v>0.1342629635453333</v>
+        <v>0.1419319711048333</v>
       </c>
       <c r="R16">
-        <v>1.208366671908</v>
+        <v>0.851591826629</v>
       </c>
       <c r="S16">
-        <v>0.002995390302772575</v>
+        <v>0.008604561359850068</v>
       </c>
       <c r="T16">
-        <v>0.004440735437517996</v>
+        <v>0.008657996140559645</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H17">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I17">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J17">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N17">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O17">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P17">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q17">
-        <v>0.2777491700756667</v>
+        <v>0.53530307423275</v>
       </c>
       <c r="R17">
-        <v>1.666495020454</v>
+        <v>2.141212296931</v>
       </c>
       <c r="S17">
-        <v>0.006196550028980049</v>
+        <v>0.03245250603156895</v>
       </c>
       <c r="T17">
-        <v>0.006124352537870058</v>
+        <v>0.02176935853920998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H18">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I18">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J18">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N18">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O18">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P18">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q18">
-        <v>0.3179537366182222</v>
+        <v>0.8575358898609999</v>
       </c>
       <c r="R18">
-        <v>2.861583629564</v>
+        <v>5.145215339166</v>
       </c>
       <c r="S18">
-        <v>0.0070935089934534</v>
+        <v>0.05198772429597668</v>
       </c>
       <c r="T18">
-        <v>0.0105162912273649</v>
+        <v>0.05231057081088535</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H19">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I19">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J19">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N19">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O19">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P19">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q19">
-        <v>0.2606377078421111</v>
+        <v>0.239883386445</v>
       </c>
       <c r="R19">
-        <v>2.345739370579</v>
+        <v>1.43930031867</v>
       </c>
       <c r="S19">
-        <v>0.005814795398460923</v>
+        <v>0.01454282147853817</v>
       </c>
       <c r="T19">
-        <v>0.008620568733216779</v>
+        <v>0.01463313316836238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H20">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I20">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J20">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.2518115</v>
+        <v>3.6833285</v>
       </c>
       <c r="N20">
-        <v>6.503623</v>
+        <v>7.366657</v>
       </c>
       <c r="O20">
-        <v>0.2617763977697001</v>
+        <v>0.3319404283605227</v>
       </c>
       <c r="P20">
-        <v>0.2047449818594686</v>
+        <v>0.2657978481314736</v>
       </c>
       <c r="Q20">
-        <v>1.11985396665275</v>
+        <v>0.188299119577</v>
       </c>
       <c r="R20">
-        <v>4.479415866611</v>
+        <v>1.129794717462</v>
       </c>
       <c r="S20">
-        <v>0.02498380509156906</v>
+        <v>0.01141554870121061</v>
       </c>
       <c r="T20">
-        <v>0.01646180852276464</v>
+        <v>0.01148643986184257</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H21">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I21">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J21">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>3.437017</v>
       </c>
       <c r="O21">
-        <v>0.09222858595721403</v>
+        <v>0.1032476373170262</v>
       </c>
       <c r="P21">
-        <v>0.1082030713212751</v>
+        <v>0.1240117087834133</v>
       </c>
       <c r="Q21">
-        <v>0.3945449196448334</v>
+        <v>0.05856906102466667</v>
       </c>
       <c r="R21">
-        <v>2.367269517869</v>
+        <v>0.5271215492220001</v>
       </c>
       <c r="S21">
-        <v>0.008802248923347229</v>
+        <v>0.00355072275437726</v>
       </c>
       <c r="T21">
-        <v>0.00869969180924032</v>
+        <v>0.005359159395453129</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H22">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I22">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J22">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.087628</v>
+        <v>0.5012456666666667</v>
       </c>
       <c r="N22">
-        <v>3.262884</v>
+        <v>1.503737</v>
       </c>
       <c r="O22">
-        <v>0.08755591766418913</v>
+        <v>0.04517210487937449</v>
       </c>
       <c r="P22">
-        <v>0.1027210718378895</v>
+        <v>0.05425664025835297</v>
       </c>
       <c r="Q22">
-        <v>0.374555699198</v>
+        <v>0.02562468097133334</v>
       </c>
       <c r="R22">
-        <v>2.247334195188</v>
+        <v>0.230622128742</v>
       </c>
       <c r="S22">
-        <v>0.008356291858901745</v>
+        <v>0.001553484659080533</v>
       </c>
       <c r="T22">
-        <v>0.008258930697550022</v>
+        <v>0.002344697821349299</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H23">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I23">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J23">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.249971</v>
+        <v>1.8904715</v>
       </c>
       <c r="N23">
-        <v>4.499942</v>
+        <v>3.780943</v>
       </c>
       <c r="O23">
-        <v>0.1811265208534658</v>
+        <v>0.1703687084965025</v>
       </c>
       <c r="P23">
-        <v>0.141665736645353</v>
+        <v>0.1364209726756327</v>
       </c>
       <c r="Q23">
-        <v>0.7748416380235</v>
+        <v>0.096644684023</v>
       </c>
       <c r="R23">
-        <v>3.099366552094</v>
+        <v>0.5798681041380001</v>
       </c>
       <c r="S23">
-        <v>0.01728662221831823</v>
+        <v>0.005859040125392201</v>
       </c>
       <c r="T23">
-        <v>0.0113901410902118</v>
+        <v>0.00589542507416249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H24">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I24">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J24">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.575657333333333</v>
+        <v>3.028466</v>
       </c>
       <c r="N24">
-        <v>7.726971999999999</v>
+        <v>9.085398</v>
       </c>
       <c r="O24">
-        <v>0.207344828754407</v>
+        <v>0.2729244218416247</v>
       </c>
       <c r="P24">
-        <v>0.2432580643079437</v>
+        <v>0.3278120914029245</v>
       </c>
       <c r="Q24">
-        <v>0.8870010089673334</v>
+        <v>0.154821238852</v>
       </c>
       <c r="R24">
-        <v>5.322006053803999</v>
+        <v>1.393391149668</v>
       </c>
       <c r="S24">
-        <v>0.01978888407236105</v>
+        <v>0.00938596736972021</v>
       </c>
       <c r="T24">
-        <v>0.01955831903613781</v>
+        <v>0.01416638208456085</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H25">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I25">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J25">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.111355666666666</v>
+        <v>0.8471700000000001</v>
       </c>
       <c r="N25">
-        <v>6.334066999999999</v>
+        <v>2.54151</v>
       </c>
       <c r="O25">
-        <v>0.169967749001024</v>
+        <v>0.07634669910494926</v>
       </c>
       <c r="P25">
-        <v>0.19940707402807</v>
+        <v>0.09170073874820307</v>
       </c>
       <c r="Q25">
-        <v>0.7271054974531667</v>
+        <v>0.04330902474000001</v>
       </c>
       <c r="R25">
-        <v>4.362632984719</v>
+        <v>0.38978122266</v>
       </c>
       <c r="S25">
-        <v>0.01622163475803559</v>
+        <v>0.002625589977436059</v>
       </c>
       <c r="T25">
-        <v>0.01603263259945453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.547919</v>
-      </c>
-      <c r="H26">
-        <v>1.643757</v>
-      </c>
-      <c r="I26">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J26">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>3.2518115</v>
-      </c>
-      <c r="N26">
-        <v>6.503623</v>
-      </c>
-      <c r="O26">
-        <v>0.2617763977697001</v>
-      </c>
-      <c r="P26">
-        <v>0.2047449818594686</v>
-      </c>
-      <c r="Q26">
-        <v>1.7817293052685</v>
-      </c>
-      <c r="R26">
-        <v>10.690375831611</v>
-      </c>
-      <c r="S26">
-        <v>0.03975016298046315</v>
-      </c>
-      <c r="T26">
-        <v>0.03928702429442319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.547919</v>
-      </c>
-      <c r="H27">
-        <v>1.643757</v>
-      </c>
-      <c r="I27">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J27">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M27">
-        <v>1.145672333333333</v>
-      </c>
-      <c r="N27">
-        <v>3.437017</v>
-      </c>
-      <c r="O27">
-        <v>0.09222858595721403</v>
-      </c>
-      <c r="P27">
-        <v>0.1082030713212751</v>
-      </c>
-      <c r="Q27">
-        <v>0.6277356392076667</v>
-      </c>
-      <c r="R27">
-        <v>5.649620752869001</v>
-      </c>
-      <c r="S27">
-        <v>0.01400470536874831</v>
-      </c>
-      <c r="T27">
-        <v>0.02076229977957601</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.547919</v>
-      </c>
-      <c r="H28">
-        <v>1.643757</v>
-      </c>
-      <c r="I28">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J28">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.087628</v>
-      </c>
-      <c r="N28">
-        <v>3.262884</v>
-      </c>
-      <c r="O28">
-        <v>0.08755591766418913</v>
-      </c>
-      <c r="P28">
-        <v>0.1027210718378895</v>
-      </c>
-      <c r="Q28">
-        <v>0.595932046132</v>
-      </c>
-      <c r="R28">
-        <v>5.363388415188001</v>
-      </c>
-      <c r="S28">
-        <v>0.01329517109528494</v>
-      </c>
-      <c r="T28">
-        <v>0.01971039880046625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.547919</v>
-      </c>
-      <c r="H29">
-        <v>1.643757</v>
-      </c>
-      <c r="I29">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J29">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.249971</v>
-      </c>
-      <c r="N29">
-        <v>4.499942</v>
-      </c>
-      <c r="O29">
-        <v>0.1811265208534658</v>
-      </c>
-      <c r="P29">
-        <v>0.141665736645353</v>
-      </c>
-      <c r="Q29">
-        <v>1.232801860349</v>
-      </c>
-      <c r="R29">
-        <v>7.396811162094</v>
-      </c>
-      <c r="S29">
-        <v>0.02750365879181977</v>
-      </c>
-      <c r="T29">
-        <v>0.02718320706435402</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.547919</v>
-      </c>
-      <c r="H30">
-        <v>1.643757</v>
-      </c>
-      <c r="I30">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J30">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>2.575657333333333</v>
-      </c>
-      <c r="N30">
-        <v>7.726971999999999</v>
-      </c>
-      <c r="O30">
-        <v>0.207344828754407</v>
-      </c>
-      <c r="P30">
-        <v>0.2432580643079437</v>
-      </c>
-      <c r="Q30">
-        <v>1.411251590422667</v>
-      </c>
-      <c r="R30">
-        <v>12.701264313804</v>
-      </c>
-      <c r="S30">
-        <v>0.03148485045391625</v>
-      </c>
-      <c r="T30">
-        <v>0.04667701936079746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.547919</v>
-      </c>
-      <c r="H31">
-        <v>1.643757</v>
-      </c>
-      <c r="I31">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J31">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.111355666666666</v>
-      </c>
-      <c r="N31">
-        <v>6.334066999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.169967749001024</v>
-      </c>
-      <c r="P31">
-        <v>0.19940707402807</v>
-      </c>
-      <c r="Q31">
-        <v>1.156851885524333</v>
-      </c>
-      <c r="R31">
-        <v>10.411666969719</v>
-      </c>
-      <c r="S31">
-        <v>0.0258092241385223</v>
-      </c>
-      <c r="T31">
-        <v>0.0382627720136152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.461005</v>
-      </c>
-      <c r="I32">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J32">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.2518115</v>
-      </c>
-      <c r="N32">
-        <v>6.503623</v>
-      </c>
-      <c r="O32">
-        <v>0.2617763977697001</v>
-      </c>
-      <c r="P32">
-        <v>0.2047449818594686</v>
-      </c>
-      <c r="Q32">
-        <v>0.4997004535191666</v>
-      </c>
-      <c r="R32">
-        <v>2.998202721115</v>
-      </c>
-      <c r="S32">
-        <v>0.01114825602860302</v>
-      </c>
-      <c r="T32">
-        <v>0.01101836502284131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.461005</v>
-      </c>
-      <c r="I33">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J33">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>1.145672333333333</v>
-      </c>
-      <c r="N33">
-        <v>3.437017</v>
-      </c>
-      <c r="O33">
-        <v>0.09222858595721403</v>
-      </c>
-      <c r="P33">
-        <v>0.1082030713212751</v>
-      </c>
-      <c r="Q33">
-        <v>0.1760535580094444</v>
-      </c>
-      <c r="R33">
-        <v>1.584482022085</v>
-      </c>
-      <c r="S33">
-        <v>0.003927733356280652</v>
-      </c>
-      <c r="T33">
-        <v>0.005822955588863464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.461005</v>
-      </c>
-      <c r="I34">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J34">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1.087628</v>
-      </c>
-      <c r="N34">
-        <v>3.262884</v>
-      </c>
-      <c r="O34">
-        <v>0.08755591766418913</v>
-      </c>
-      <c r="P34">
-        <v>0.1027210718378895</v>
-      </c>
-      <c r="Q34">
-        <v>0.1671339820466667</v>
-      </c>
-      <c r="R34">
-        <v>1.50420583842</v>
-      </c>
-      <c r="S34">
-        <v>0.00372873870698761</v>
-      </c>
-      <c r="T34">
-        <v>0.005527941416528685</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.461005</v>
-      </c>
-      <c r="I35">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J35">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>2.249971</v>
-      </c>
-      <c r="N35">
-        <v>4.499942</v>
-      </c>
-      <c r="O35">
-        <v>0.1811265208534658</v>
-      </c>
-      <c r="P35">
-        <v>0.141665736645353</v>
-      </c>
-      <c r="Q35">
-        <v>0.3457492936183333</v>
-      </c>
-      <c r="R35">
-        <v>2.07449576171</v>
-      </c>
-      <c r="S35">
-        <v>0.007713624472061789</v>
-      </c>
-      <c r="T35">
-        <v>0.007623751182627677</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.461005</v>
-      </c>
-      <c r="I36">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J36">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.575657333333333</v>
-      </c>
-      <c r="N36">
-        <v>7.726971999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.207344828754407</v>
-      </c>
-      <c r="P36">
-        <v>0.2432580643079437</v>
-      </c>
-      <c r="Q36">
-        <v>0.3957969696511111</v>
-      </c>
-      <c r="R36">
-        <v>3.56217272686</v>
-      </c>
-      <c r="S36">
-        <v>0.008830182005921592</v>
-      </c>
-      <c r="T36">
-        <v>0.01309094915515154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.461005</v>
-      </c>
-      <c r="I37">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J37">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>2.111355666666666</v>
-      </c>
-      <c r="N37">
-        <v>6.334066999999999</v>
-      </c>
-      <c r="O37">
-        <v>0.169967749001024</v>
-      </c>
-      <c r="P37">
-        <v>0.19940707402807</v>
-      </c>
-      <c r="Q37">
-        <v>0.3244485063705555</v>
-      </c>
-      <c r="R37">
-        <v>2.920036557335</v>
-      </c>
-      <c r="S37">
-        <v>0.007238406512628978</v>
-      </c>
-      <c r="T37">
-        <v>0.01073110515248706</v>
+        <v>0.003962842544898114</v>
       </c>
     </row>
   </sheetData>
